--- a/exports/mlb.xlsx
+++ b/exports/mlb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
   <si>
     <t>Tm</t>
   </si>
@@ -61,36 +61,36 @@
     <t>Kansas City Royals</t>
   </si>
   <si>
+    <t>Houston Astros</t>
+  </si>
+  <si>
     <t>Seattle Mariners</t>
   </si>
   <si>
-    <t>Houston Astros</t>
-  </si>
-  <si>
     <t>St. Louis Cardinals</t>
   </si>
   <si>
     <t>New York Mets</t>
   </si>
   <si>
+    <t>Arizona Diamondbacks</t>
+  </si>
+  <si>
+    <t>Pittsburgh Pirates</t>
+  </si>
+  <si>
     <t>San Diego Padres</t>
   </si>
   <si>
-    <t>Arizona Diamondbacks</t>
-  </si>
-  <si>
-    <t>Pittsburgh Pirates</t>
-  </si>
-  <si>
     <t>Tampa Bay Rays</t>
   </si>
   <si>
+    <t>Detroit Tigers</t>
+  </si>
+  <si>
     <t>Cincinnati Reds</t>
   </si>
   <si>
-    <t>Detroit Tigers</t>
-  </si>
-  <si>
     <t>San Francisco Giants</t>
   </si>
   <si>
@@ -100,12 +100,12 @@
     <t>Texas Rangers</t>
   </si>
   <si>
+    <t>Washington Nationals</t>
+  </si>
+  <si>
     <t>Toronto Blue Jays</t>
   </si>
   <si>
-    <t>Washington Nationals</t>
-  </si>
-  <si>
     <t>Los Angeles Angels</t>
   </si>
   <si>
@@ -124,94 +124,100 @@
     <t>62</t>
   </si>
   <si>
-    <t>58</t>
+    <t>59</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
   </si>
   <si>
     <t>56</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>61</t>
   </si>
   <si>
     <t>63</t>
   </si>
   <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>.646</t>
-  </si>
-  <si>
-    <t>.611</t>
-  </si>
-  <si>
-    <t>.604</t>
-  </si>
-  <si>
-    <t>.592</t>
-  </si>
-  <si>
-    <t>.577</t>
+    <t>72</t>
+  </si>
+  <si>
+    <t>.639</t>
+  </si>
+  <si>
+    <t>.615</t>
+  </si>
+  <si>
+    <t>.608</t>
+  </si>
+  <si>
+    <t>.596</t>
+  </si>
+  <si>
+    <t>.582</t>
   </si>
   <si>
     <t>.567</t>
@@ -223,16 +229,22 @@
     <t>.558</t>
   </si>
   <si>
-    <t>.536</t>
-  </si>
-  <si>
-    <t>.531</t>
+    <t>.552</t>
+  </si>
+  <si>
+    <t>.541</t>
+  </si>
+  <si>
+    <t>.526</t>
+  </si>
+  <si>
+    <t>.525</t>
   </si>
   <si>
     <t>.521</t>
   </si>
   <si>
-    <t>.516</t>
+    <t>.510</t>
   </si>
   <si>
     <t>.505</t>
@@ -241,34 +253,40 @@
     <t>.500</t>
   </si>
   <si>
-    <t>.485</t>
+    <t>.495</t>
+  </si>
+  <si>
+    <t>.490</t>
   </si>
   <si>
     <t>.480</t>
   </si>
   <si>
-    <t>.479</t>
-  </si>
-  <si>
-    <t>.458</t>
+    <t>.475</t>
+  </si>
+  <si>
+    <t>.474</t>
+  </si>
+  <si>
+    <t>.459</t>
   </si>
   <si>
     <t>.454</t>
   </si>
   <si>
-    <t>.427</t>
-  </si>
-  <si>
-    <t>.378</t>
+    <t>.423</t>
+  </si>
+  <si>
+    <t>.384</t>
+  </si>
+  <si>
+    <t>.357</t>
   </si>
   <si>
     <t>.351</t>
   </si>
   <si>
-    <t>.344</t>
-  </si>
-  <si>
-    <t>.276</t>
+    <t>.273</t>
   </si>
   <si>
     <t>--</t>
@@ -277,52 +295,58 @@
     <t>1.0</t>
   </si>
   <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
     <t>4.5</t>
   </si>
   <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
     <t>8.5</t>
   </si>
   <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
     <t>10.0</t>
   </si>
   <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
     <t>9.0</t>
   </si>
   <si>
-    <t>5.0</t>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>15.0</t>
   </si>
   <si>
     <t>14.0</t>
   </si>
   <si>
-    <t>18.5</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
     <t>22.0</t>
   </si>
   <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>32.5</t>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>33.5</t>
   </si>
 </sst>
 </file>
@@ -714,13 +738,13 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -734,13 +758,13 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -754,13 +778,13 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -774,13 +798,13 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -794,13 +818,13 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -814,13 +838,13 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -834,13 +858,13 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -854,13 +878,13 @@
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -874,13 +898,13 @@
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -891,16 +915,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -914,13 +938,13 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -937,10 +961,10 @@
         <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -951,16 +975,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -971,16 +995,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -991,16 +1015,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1011,16 +1035,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1031,16 +1055,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1051,16 +1075,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1074,13 +1098,13 @@
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1091,16 +1115,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1111,16 +1135,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1131,16 +1155,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1151,16 +1175,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1171,16 +1195,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1191,16 +1215,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1211,16 +1235,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1231,16 +1255,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1251,16 +1275,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1271,16 +1295,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1291,16 +1315,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/exports/mlb.xlsx
+++ b/exports/mlb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="108">
   <si>
     <t>Tm</t>
   </si>
@@ -34,33 +34,33 @@
     <t>Philadelphia Phillies</t>
   </si>
   <si>
+    <t>Baltimore Orioles</t>
+  </si>
+  <si>
     <t>Cleveland Guardians</t>
   </si>
   <si>
-    <t>Baltimore Orioles</t>
+    <t>Los Angeles Dodgers</t>
   </si>
   <si>
     <t>New York Yankees</t>
   </si>
   <si>
-    <t>Los Angeles Dodgers</t>
-  </si>
-  <si>
     <t>Milwaukee Brewers</t>
   </si>
   <si>
     <t>Minnesota Twins</t>
   </si>
   <si>
+    <t>Kansas City Royals</t>
+  </si>
+  <si>
     <t>Atlanta Braves</t>
   </si>
   <si>
     <t>Boston Red Sox</t>
   </si>
   <si>
-    <t>Kansas City Royals</t>
-  </si>
-  <si>
     <t>Houston Astros</t>
   </si>
   <si>
@@ -73,33 +73,33 @@
     <t>New York Mets</t>
   </si>
   <si>
+    <t>San Diego Padres</t>
+  </si>
+  <si>
+    <t>Pittsburgh Pirates</t>
+  </si>
+  <si>
     <t>Arizona Diamondbacks</t>
   </si>
   <si>
-    <t>Pittsburgh Pirates</t>
-  </si>
-  <si>
-    <t>San Diego Padres</t>
-  </si>
-  <si>
     <t>Tampa Bay Rays</t>
   </si>
   <si>
     <t>Detroit Tigers</t>
   </si>
   <si>
+    <t>Chicago Cubs</t>
+  </si>
+  <si>
+    <t>Texas Rangers</t>
+  </si>
+  <si>
     <t>Cincinnati Reds</t>
   </si>
   <si>
     <t>San Francisco Giants</t>
   </si>
   <si>
-    <t>Chicago Cubs</t>
-  </si>
-  <si>
-    <t>Texas Rangers</t>
-  </si>
-  <si>
     <t>Washington Nationals</t>
   </si>
   <si>
@@ -121,127 +121,127 @@
     <t>Chicago White Sox</t>
   </si>
   <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>62</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>.639</t>
-  </si>
-  <si>
-    <t>.615</t>
-  </si>
-  <si>
-    <t>.608</t>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>.630</t>
+  </si>
+  <si>
+    <t>.606</t>
   </si>
   <si>
     <t>.596</t>
   </si>
   <si>
-    <t>.582</t>
-  </si>
-  <si>
-    <t>.567</t>
-  </si>
-  <si>
-    <t>.563</t>
-  </si>
-  <si>
-    <t>.558</t>
-  </si>
-  <si>
-    <t>.552</t>
-  </si>
-  <si>
-    <t>.541</t>
-  </si>
-  <si>
-    <t>.526</t>
-  </si>
-  <si>
-    <t>.525</t>
-  </si>
-  <si>
-    <t>.521</t>
+    <t>.594</t>
+  </si>
+  <si>
+    <t>.588</t>
+  </si>
+  <si>
+    <t>.570</t>
+  </si>
+  <si>
+    <t>.556</t>
+  </si>
+  <si>
+    <t>.554</t>
+  </si>
+  <si>
+    <t>.545</t>
+  </si>
+  <si>
+    <t>.535</t>
+  </si>
+  <si>
+    <t>.520</t>
+  </si>
+  <si>
+    <t>.515</t>
   </si>
   <si>
     <t>.510</t>
@@ -256,91 +256,82 @@
     <t>.495</t>
   </si>
   <si>
-    <t>.490</t>
-  </si>
-  <si>
     <t>.480</t>
   </si>
   <si>
     <t>.475</t>
   </si>
   <si>
-    <t>.474</t>
-  </si>
-  <si>
-    <t>.459</t>
-  </si>
-  <si>
-    <t>.454</t>
-  </si>
-  <si>
-    <t>.423</t>
-  </si>
-  <si>
-    <t>.384</t>
-  </si>
-  <si>
-    <t>.357</t>
-  </si>
-  <si>
-    <t>.351</t>
-  </si>
-  <si>
-    <t>.273</t>
+    <t>.470</t>
+  </si>
+  <si>
+    <t>.455</t>
+  </si>
+  <si>
+    <t>.430</t>
+  </si>
+  <si>
+    <t>.392</t>
+  </si>
+  <si>
+    <t>.366</t>
+  </si>
+  <si>
+    <t>.350</t>
+  </si>
+  <si>
+    <t>.265</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>7.0</t>
   </si>
   <si>
     <t>5.0</t>
   </si>
   <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>12.5</t>
+    <t>11.5</t>
   </si>
   <si>
     <t>6.0</t>
   </si>
   <si>
-    <t>11.0</t>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>9.5</t>
   </si>
   <si>
     <t>12.0</t>
   </si>
   <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>17.5</t>
+    <t>16.0</t>
   </si>
   <si>
     <t>15.0</t>
   </si>
   <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
   </si>
   <si>
     <t>28.0</t>
@@ -741,10 +732,10 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -761,10 +752,10 @@
         <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -775,16 +766,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -801,10 +792,10 @@
         <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -815,16 +806,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -838,13 +829,13 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -858,13 +849,13 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -878,13 +869,13 @@
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -895,16 +886,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -915,16 +906,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -935,16 +926,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -964,7 +955,7 @@
         <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -981,10 +972,10 @@
         <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -998,13 +989,13 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1024,7 +1015,7 @@
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1038,13 +1029,13 @@
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1055,16 +1046,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1078,13 +1069,13 @@
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1098,13 +1089,13 @@
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1118,13 +1109,13 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1135,16 +1126,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1155,16 +1146,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1178,13 +1169,13 @@
         <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1198,13 +1189,13 @@
         <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1218,13 +1209,13 @@
         <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1238,13 +1229,13 @@
         <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1261,10 +1252,10 @@
         <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1281,10 +1272,10 @@
         <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1298,13 +1289,13 @@
         <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1318,13 +1309,13 @@
         <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
